--- a/StructureDefinition-content-response-profile.xlsx
+++ b/StructureDefinition-content-response-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="422">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:10:53+00:00</t>
+    <t>2023-02-16T19:26:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -585,10 +585,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>RequestGroup.extension:duplicateOrder</t>
-  </si>
-  <si>
-    <t>duplicateOrder</t>
+    <t>RequestGroup.extension:PrescriptionDuplicate</t>
+  </si>
+  <si>
+    <t>PrescriptionDuplicate</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/prescription-duplicate}
@@ -598,6 +598,17 @@
     <t>Extensão para indicar a via da receita prescrita</t>
   </si>
   <si>
+    <t>Via da receita no caso de ser renovável (1, 2, 3, ...).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>RequestGroup.extension:MeaningOrder</t>
   </si>
   <si>
@@ -609,6 +620,9 @@
   </si>
   <si>
     <t>Extensão sobre a Modalidade de Prescrição. Receita com papel (RCP) ou receita sem papel (RSP) [MODALIDADE DE PRESCRIÇÃO]</t>
+  </si>
+  <si>
+    <t>Receita com papel (RCP) ou receita sem papel (RSP).</t>
   </si>
   <si>
     <t>RequestGroup.modifierExtension</t>
@@ -1644,7 +1658,7 @@
   <cols>
     <col min="1" max="1" width="50.50390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.50390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.66796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3541,7 +3555,7 @@
         <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3601,10 +3615,10 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3621,13 +3635,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>179</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3649,13 +3663,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3715,10 +3729,10 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -3735,10 +3749,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3764,10 +3778,10 @@
         <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>110</v>
@@ -3820,7 +3834,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3849,10 +3863,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3875,17 +3889,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3934,7 +3948,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3949,24 +3963,24 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3989,13 +4003,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4046,7 +4060,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4061,7 +4075,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4075,14 +4089,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4101,17 +4115,17 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4160,7 +4174,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4175,7 +4189,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4189,14 +4203,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4215,19 +4229,19 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4276,7 +4290,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4291,7 +4305,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4305,14 +4319,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4331,19 +4345,19 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4392,7 +4406,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4407,7 +4421,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4421,10 +4435,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4450,13 +4464,13 @@
         <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4482,31 +4496,31 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -4521,28 +4535,28 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4564,16 +4578,16 @@
         <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4583,7 +4597,7 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>77</v>
@@ -4598,13 +4612,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4622,7 +4636,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -4637,24 +4651,24 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4680,10 +4694,10 @@
         <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4691,7 +4705,7 @@
         <v>77</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>77</v>
@@ -4712,31 +4726,31 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4751,24 +4765,24 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4791,13 +4805,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4848,7 +4862,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4863,24 +4877,24 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4903,13 +4917,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4960,7 +4974,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4975,24 +4989,24 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5015,13 +5029,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5072,7 +5086,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5087,24 +5101,24 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5127,13 +5141,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5184,7 +5198,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5199,24 +5213,24 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5239,13 +5253,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5296,7 +5310,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5311,24 +5325,24 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5351,13 +5365,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5408,7 +5422,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5423,7 +5437,7 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5437,10 +5451,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5463,13 +5477,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5520,7 +5534,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5532,7 +5546,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5549,10 +5563,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5661,10 +5675,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5775,14 +5789,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5804,10 +5818,10 @@
         <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>110</v>
@@ -5860,7 +5874,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5889,10 +5903,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5918,10 +5932,10 @@
         <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5972,7 +5986,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6001,10 +6015,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6030,10 +6044,10 @@
         <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6084,7 +6098,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6113,10 +6127,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6142,10 +6156,10 @@
         <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6196,7 +6210,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6225,10 +6239,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6254,10 +6268,10 @@
         <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6308,7 +6322,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6337,10 +6351,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6363,13 +6377,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6420,7 +6434,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6435,7 +6449,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6449,10 +6463,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6475,13 +6489,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6532,7 +6546,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6547,7 +6561,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6561,10 +6575,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6587,13 +6601,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6644,7 +6658,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6656,7 +6670,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6673,10 +6687,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6785,10 +6799,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6899,14 +6913,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6928,10 +6942,10 @@
         <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>110</v>
@@ -6984,7 +6998,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7013,10 +7027,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7042,13 +7056,13 @@
         <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7074,31 +7088,31 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7127,10 +7141,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7156,10 +7170,10 @@
         <v>100</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7210,7 +7224,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7239,10 +7253,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7268,10 +7282,10 @@
         <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7322,7 +7336,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7351,10 +7365,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7380,13 +7394,13 @@
         <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7436,7 +7450,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7465,10 +7479,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7491,13 +7505,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7548,7 +7562,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7560,7 +7574,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7577,10 +7591,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7689,10 +7703,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7803,14 +7817,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7832,10 +7846,10 @@
         <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>110</v>
@@ -7888,7 +7902,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7917,10 +7931,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7946,10 +7960,10 @@
         <v>89</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8000,7 +8014,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
@@ -8029,10 +8043,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8058,10 +8072,10 @@
         <v>155</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8088,31 +8102,31 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Z57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
@@ -8141,10 +8155,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8167,13 +8181,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8224,7 +8238,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8253,10 +8267,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8279,13 +8293,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8324,17 +8338,17 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8349,7 +8363,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8363,13 +8377,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8391,13 +8405,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8448,7 +8462,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8463,7 +8477,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8477,10 +8491,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8503,13 +8517,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8560,7 +8574,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8575,24 +8589,24 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8618,10 +8632,10 @@
         <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8651,28 +8665,28 @@
         <v>137</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Z62" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8701,10 +8715,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8730,10 +8744,10 @@
         <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8760,31 +8774,31 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Z63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8813,10 +8827,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8842,10 +8856,10 @@
         <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8872,31 +8886,31 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Z64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8925,10 +8939,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8954,10 +8968,10 @@
         <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8984,31 +8998,31 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Z65" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9037,10 +9051,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9066,10 +9080,10 @@
         <v>155</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9096,31 +9110,31 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Z66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9149,10 +9163,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9178,10 +9192,10 @@
         <v>155</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9208,31 +9222,31 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Z67" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9261,10 +9275,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9287,16 +9301,16 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9346,7 +9360,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9355,7 +9369,7 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
@@ -9375,10 +9389,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9401,13 +9415,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9458,7 +9472,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9467,7 +9481,7 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-content-response-profile.xlsx
+++ b/StructureDefinition-content-response-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T19:26:47+00:00</t>
+    <t>2023-02-16T20:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-response-profile.xlsx
+++ b/StructureDefinition-content-response-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-response-profile.xlsx
+++ b/StructureDefinition-content-response-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
